--- a/TestCalculator.xlsx
+++ b/TestCalculator.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soyuz\Desktop\Star_Tracker_Microcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88176E79-D579-487D-AA57-2000C2C033AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8CCF4-E1C7-4D76-8439-1E8EF798CCC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9F25A3B-AFB2-4876-9025-25F931CCB88C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{B9F25A3B-AFB2-4876-9025-25F931CCB88C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="StarTracker" sheetId="1" r:id="rId1"/>
+    <sheet name="AngleStat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>x</t>
   </si>
@@ -72,6 +96,120 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>o-1</t>
+  </si>
+  <si>
+    <t>o-2</t>
+  </si>
+  <si>
+    <t>Ratios</t>
+  </si>
+  <si>
+    <t>FOV</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>distance x</t>
+  </si>
+  <si>
+    <t>distance y</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>POS_DEC</t>
+  </si>
+  <si>
+    <t>POS_RA</t>
+  </si>
+  <si>
+    <t>POX_Y</t>
+  </si>
+  <si>
+    <t>POS_X</t>
+  </si>
+  <si>
+    <t>WIDTH</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>center x</t>
+  </si>
+  <si>
+    <t>center y</t>
+  </si>
+  <si>
+    <t>distance ra</t>
+  </si>
+  <si>
+    <t>distance dec</t>
+  </si>
+  <si>
+    <t>pixels diagonal</t>
+  </si>
+  <si>
+    <t>fov/pixel</t>
+  </si>
+  <si>
+    <t>findCenter</t>
+  </si>
+  <si>
+    <t>findDistanceRatio</t>
+  </si>
+  <si>
+    <t>findAngle</t>
+  </si>
+  <si>
+    <t>clusterProbability</t>
+  </si>
+  <si>
+    <t>x/ra</t>
+  </si>
+  <si>
+    <t>y/dec</t>
+  </si>
+  <si>
+    <t>IMAGE_SIZE</t>
+  </si>
+  <si>
+    <t>IMAGE_POS</t>
+  </si>
+  <si>
+    <t>REAL_POS</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>distance pixels</t>
+  </si>
+  <si>
+    <t>distance real</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Weighting</t>
+  </si>
+  <si>
+    <t>Odds</t>
   </si>
 </sst>
 </file>
@@ -87,18 +225,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -112,8 +244,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -179,26 +335,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,13 +460,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -244,7 +482,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="922020"/>
+          <a:off x="0" y="1104900"/>
           <a:ext cx="3055620" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -292,6 +530,359 @@
           <a:r>
             <a:rPr lang="en-AU" sz="1050" baseline="0"/>
             <a:t>o generate a test harness.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766C3D8A-3C37-4980-8F41-ECC8CECAF6F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="1120140"/>
+          <a:ext cx="3055620" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1050"/>
+            <a:t>This calculates the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1050" baseline="0"/>
+            <a:t> ratio of the distance of the stars from the opposite.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1050"/>
+            <a:t>Use this t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1050" baseline="0"/>
+            <a:t>o generate a test harness.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED4C29C-1B93-4A0E-8B55-64CA8E013D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="1821180"/>
+          <a:ext cx="3459480" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000"/>
+            <a:t>Finds</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t> the center of the screen from the input values.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- FOV:	The angle of the diagonal of the lense.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- WIDTH:	The width of the image.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- HEIGHT:	The height of the image.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-AU" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- POS_X:	The x position in the image of the star.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000"/>
+            <a:t>- POS_Y:	The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t> y position in the image of the star.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000"/>
+            <a:t>- POS_RA:	The position in real coordinates (ascention).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t> POS_DEC:	The position in real coordinates (declination).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000"/>
+            <a:t>- pixels</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t> diagonal:	The diagonal distance of the image.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- fov/pixels:	The field of view / pixels.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- center x:	The center of the image x.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- center y:	The center of the image y.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- distance x:	The distance from the center of the image x.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- distance y:	The distance from the center of the image y.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- distance ra:	The expected coordinates from the inputs.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>- distance dec:	The expected coordinates from the inputs.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000"/>
+            <a:t>Use this t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1000" baseline="0"/>
+            <a:t>o generate a test harness</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1050" baseline="0"/>
+            <a:t>.</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="1050"/>
         </a:p>
@@ -599,103 +1190,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695AD7E6-301F-4111-AC21-01BB50F62CDB}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>10000</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8">
-        <f>SQRT((B2-B3)^2 + (C2-C3)^2)</f>
+      <c r="E3" s="5">
+        <f>SQRT((B3-B4)^2 + (C3-C4)^2)</f>
         <v>10010.004995003748</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-10</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E4" si="0">SQRT((B3-B4)^2 + (C3-C4)^2)</f>
+      <c r="E4" s="5">
+        <f>SQRT((B4-B5)^2 + (C4-C5)^2)</f>
         <v>990.08826293416894</v>
       </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>-10</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5">
+        <f>SQRT((H3-H4)^2 + (I3-I4)^2)</f>
+        <v>10010.004995003748</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-23.22</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1000</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8">
-        <f>SQRT((B4-B2)^2 + (C4-C2)^2)</f>
+      <c r="E5" s="5">
+        <f>SQRT((B5-B3)^2 + (C5-C3)^2)</f>
         <v>10072.980649658768</v>
       </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>-23.22</v>
+      </c>
+      <c r="I5">
+        <v>1001</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5">
+        <f>SQRT((H3-H5)^2 + (I3-I5)^2)</f>
+        <v>10072.980649658768</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
-        <f>ACOS((E2^2+E4^2-E3^2)/(2*E2*E4))</f>
+      <c r="B6" s="2">
+        <f>ACOS((E3^2+E5^2-E4^2)/(2*E3*E5))</f>
         <v>9.8440278170731199E-2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
-        <f>B5*180/PI()</f>
+      <c r="D6" s="7">
+        <f>B6*180/PI()</f>
         <v>5.6402124732767049</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="15">
+        <f>K4/K5</f>
+        <v>0.99374806158719731</v>
+      </c>
+      <c r="I6" s="15">
+        <f>K5/K4</f>
+        <v>1.0062912710519578</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
@@ -703,6 +1381,341 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0814323C-87F1-4518-8219-6B6DDD3C178D}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="N1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="17">
+        <v>10</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="15">
+        <f>SQRT(B5*B5+B4*B4)</f>
+        <v>500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="17">
+        <v>400</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="15">
+        <f>B3/D3</f>
+        <v>0.02</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">IF(SQRT((I$4:I$50-I4)^2 + (J$4:J$50-J4)^2) &lt; H$2, K4, K4 * H3 )</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="28">
+        <v>10</v>
+      </c>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="29">
+        <f>SQRT(P5*P5+O5*O5)</f>
+        <v>500</v>
+      </c>
+      <c r="S4" s="29"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="17">
+        <v>300</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="15">
+        <f>B4/2</f>
+        <v>200</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="17">
+        <v>400</v>
+      </c>
+      <c r="P5" s="17">
+        <v>300</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="29">
+        <f>O4/R4</f>
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="29"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15">
+        <f>B5/2</f>
+        <v>150</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="15">
+        <f>O5/2</f>
+        <v>200</v>
+      </c>
+      <c r="S6" s="15">
+        <f>P5/2</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15">
+        <f>ABS(B6-D5)</f>
+        <v>200</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="15">
+        <f>ABS(O6/R6)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="15">
+        <f>ABS(P6-S6)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15">
+        <f>ABS(B7-D6)</f>
+        <v>150</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="15">
+        <f>ABS(O7-R6)</f>
+        <v>200</v>
+      </c>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="22">
+        <f>D7*D4+B8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="24">
+        <f>D8*D4+B9</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
